--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BitCoding\Freelancing\Fivrr\Cloud_Kart\srinivas-vp-to-ftp-scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madhuri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07516622-C93E-4C17-9866-FD7CA7201CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,6 +644,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -678,6 +696,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -853,131 +888,407 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>10190398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10022921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>10059842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10046772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>10033983</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10177346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>10054703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10173048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>10021552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+        <v>10022921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>10046772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>10030631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>10134810</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>10177346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10046772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10020378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>10020378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>10217540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>10177346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>10127368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>10036227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>10114434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>10134810</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>10046772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>10113223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>10020378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>10022921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>10177346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>10005480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>10127368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>10134810</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>10187607</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>10059535</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>10134810</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>10164431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>10114434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>10219764</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>10134810</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>10036227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>10113223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>10127368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>10177346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>10187607</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>10114434</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>10113223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>10024943</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>10114434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>10219764</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>10059024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>10127368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>10164340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>10113223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>10114434</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>10004408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>10001043</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>10219764</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>10127368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>10255093</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>10036227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>10024943</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>10114434</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>10114434</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>10113223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>10164340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>10059024</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>10164431</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>10127368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>10024943</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>10114434</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>10113223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>10016287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>10232805</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>10024943</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>10255093</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>10059139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>10059024</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>10113223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>10164340</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>10255093</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>10114434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>10024943</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>10004408</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madhuri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07516622-C93E-4C17-9866-FD7CA7201CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4932AD14-3D3C-4E68-A82F-BEE9EE497A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40995" yWindow="1740" windowWidth="31920" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +164,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -507,9 +513,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -889,409 +896,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A78"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A78"/>
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10022921</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10173048</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10022921</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10030631</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10020378</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10020378</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10217540</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10127368</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10036227</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>10113223</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10020378</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10022921</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>10005480</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>10127368</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>10187607</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>10059535</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>10164431</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>10219764</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10036227</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10113223</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10127368</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10177346</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10187607</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10114434</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10113223</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10024943</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10114434</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10219764</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10059024</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10127368</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10164340</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10113223</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10114434</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10004408</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10001043</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10219764</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10127368</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10255093</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10036227</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10024943</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10114434</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10114434</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10113223</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10164340</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10059024</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10164431</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10127368</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10024943</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10114434</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10113223</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10016287</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10232805</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10024943</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>10255093</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10059139</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10059024</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10113223</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>10164340</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>10255093</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10114434</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10024943</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>10004408</v>
       </c>
     </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>10050747</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>10042805</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>10103820</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madhuri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4932AD14-3D3C-4E68-A82F-BEE9EE497A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5F5B54-4014-4DF3-BB7A-13FFB09FA31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40995" yWindow="1740" windowWidth="31920" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -896,420 +896,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:A84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>10022921</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>10173048</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>10022921</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>10030631</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10020378</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10020378</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>10217540</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>10127368</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>10036227</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>10113223</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>10020378</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>10022921</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>10005480</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>10127368</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>10187607</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>10059535</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>10164431</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>10219764</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>10036227</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>10113223</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>10127368</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>10177346</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>10187607</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10114434</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>10113223</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>10024943</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>10114434</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>10219764</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>10059024</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>10127368</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>10164340</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>10113223</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>10114434</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>10004408</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>10001043</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>10219764</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>10127368</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>10255093</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>10036227</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>10024943</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>10114434</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>10114434</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>10113223</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>10164340</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>10059024</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>10164431</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>10127368</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>10024943</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>10114434</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>10113223</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>10016287</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>10232805</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>10024943</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>10255093</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>10059139</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>10059024</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>10113223</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>10164340</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>10255093</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>10114434</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>10024943</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>10004408</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>10050747</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>10042805</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>10103820</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>10057657</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>10127369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>10188319</v>
       </c>
     </row>
   </sheetData>

--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madhuri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5F5B54-4014-4DF3-BB7A-13FFB09FA31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63ADFF5F-7291-4033-BF94-64F8DBB901C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38700" yWindow="345" windowWidth="34095" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,12 +164,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF444444"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -513,10 +507,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -896,435 +889,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A84"/>
+  <dimension ref="A1:A87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10022921</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10173048</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10022921</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10030631</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10020378</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10020378</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10217540</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10127368</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10036227</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>10113223</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10020378</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10022921</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>10005480</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>10127368</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>10187607</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>10059535</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>10164431</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>10219764</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10036227</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10113223</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10127368</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10177346</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10187607</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10114434</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10113223</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10024943</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10114434</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10219764</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10059024</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10127368</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10164340</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10113223</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10114434</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10004408</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10001043</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10219764</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10127368</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10255093</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10036227</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10024943</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10114434</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10114434</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10113223</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10164340</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10059024</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10164431</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10127368</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10024943</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10114434</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10113223</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10016287</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>10232805</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>10024943</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>10255093</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>10059139</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>10059024</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>10113223</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>10164340</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>10255093</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>10024943</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>10004408</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>10050747</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>10042805</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>10103820</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>10057657</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>10127369</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>10188319</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>10004437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>10126309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>10025976</v>
       </c>
     </row>
   </sheetData>

--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63ADFF5F-7291-4033-BF94-64F8DBB901C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D63D8A-C512-4C06-B95C-DE3661EE7B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38700" yWindow="345" windowWidth="34095" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23085" yWindow="2625" windowWidth="22830" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +164,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -507,9 +513,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -889,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A87"/>
+  <dimension ref="A1:A91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,6 +1342,26 @@
         <v>10025976</v>
       </c>
     </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>10032499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>10007485</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>10105349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>10220817</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D63D8A-C512-4C06-B95C-DE3661EE7B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC42352E-39A5-4C0A-A7B0-0458E253F66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23085" yWindow="2625" windowWidth="22830" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24765" yWindow="2415" windowWidth="24420" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -896,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A91"/>
+  <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,6 +1362,36 @@
         <v>10220817</v>
       </c>
     </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>10057381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>10092212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>10095739</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>10020308</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>10021623</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>10029283</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC42352E-39A5-4C0A-A7B0-0458E253F66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5455D98D-28DF-4952-A7AE-9A17A3F80406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24765" yWindow="2415" windowWidth="24420" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="3495" windowWidth="27240" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -896,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A97"/>
+  <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,6 +1392,11 @@
         <v>10029283</v>
       </c>
     </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>10041989</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5455D98D-28DF-4952-A7AE-9A17A3F80406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A153448A-01AA-46C2-9879-BAFA7F38AB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="3495" windowWidth="27240" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51945" yWindow="690" windowWidth="21225" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +169,12 @@
       <sz val="9"/>
       <color rgb="FF444444"/>
       <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -513,10 +519,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -896,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A98"/>
+  <dimension ref="A1:A99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,6 +1404,11 @@
         <v>10041989</v>
       </c>
     </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>10043703</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A153448A-01AA-46C2-9879-BAFA7F38AB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC1A146-6080-4A60-9F24-06961DA17381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51945" yWindow="690" windowWidth="21225" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="18765" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -903,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A99"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,6 +1409,11 @@
         <v>10043703</v>
       </c>
     </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>10157874</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC1A146-6080-4A60-9F24-06961DA17381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7576864-772E-43C7-97E6-C9868D8F1848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18765" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="2580" windowWidth="28824" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -903,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,6 +1414,11 @@
         <v>10157874</v>
       </c>
     </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>10129706</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7576864-772E-43C7-97E6-C9868D8F1848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2488051-0CE6-4C4F-BEA2-991B6FAFC1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="2580" windowWidth="28824" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2796" yWindow="2304" windowWidth="28824" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -903,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,6 +1419,11 @@
         <v>10129706</v>
       </c>
     </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>10037843</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2488051-0CE6-4C4F-BEA2-991B6FAFC1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B938886-5FFB-4ECF-995F-DAE4BD8A91CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2796" yWindow="2304" windowWidth="28824" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -903,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A102"/>
+  <dimension ref="A1:A103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,6 +1424,11 @@
         <v>10037843</v>
       </c>
     </row>
+    <row r="103" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>10144787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B938886-5FFB-4ECF-995F-DAE4BD8A91CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E826B208-DAD4-450B-8233-32B391D4268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -903,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A103"/>
+  <dimension ref="A1:A104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="A103" sqref="A103"/>
@@ -1429,6 +1429,11 @@
         <v>10144787</v>
       </c>
     </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>10129706</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madhuri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E826B208-DAD4-450B-8233-32B391D4268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0082E7DC-B4A3-41F9-8F5C-20C3629B1365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -903,535 +903,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A104"/>
+  <dimension ref="A1:A105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+      <selection activeCell="A91" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>10022921</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>10173048</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>10022921</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>10030631</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10020378</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10020378</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>10217540</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>10127368</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>10036227</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>10113223</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>10020378</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>10022921</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>10005480</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>10127368</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>10187607</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>10059535</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>10164431</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>10219764</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>10036227</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>10113223</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>10127368</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>10177346</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>10187607</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10114434</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>10113223</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>10024943</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>10114434</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>10219764</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>10059024</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>10127368</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>10164340</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>10113223</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>10114434</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>10004408</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>10001043</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>10219764</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>10127368</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>10255093</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>10036227</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>10024943</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>10114434</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>10114434</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>10113223</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>10164340</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>10059024</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>10164431</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>10127368</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>10024943</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>10114434</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>10113223</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>10016287</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>10232805</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>10024943</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>10255093</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>10059139</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>10059024</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>10113223</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>10164340</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>10255093</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>10024943</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>10004408</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>10050747</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>10042805</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>10103820</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>10057657</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>10127369</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>10188319</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>10004437</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>10126309</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>10025976</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>10032499</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>10007485</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>10105349</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>10220817</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>10057381</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>10092212</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>10095739</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>10020308</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>10021623</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>10029283</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>10041989</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>10043703</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>10157874</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>10129706</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>10037843</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>10144787</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>10129706</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>10228066</v>
       </c>
     </row>
   </sheetData>

--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madhuri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CloudKart\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0082E7DC-B4A3-41F9-8F5C-20C3629B1365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942B4A08-81DB-4024-9162-B4434D0A0E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,16 +166,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF444444"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -521,9 +530,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -903,540 +912,550 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A105"/>
+  <dimension ref="A1:A107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A91" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10022921</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10173048</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10022921</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10030631</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10020378</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10020378</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10217540</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>10127368</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>10036227</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>10046772</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>10113223</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>10020378</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>10022921</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>10005480</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>10127368</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>10187607</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>10059535</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>10164431</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>10219764</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>10134810</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>10036227</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>10113223</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>10127368</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>10177346</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>10187607</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>10113223</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>10024943</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>10219764</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>10059024</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>10127368</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>10164340</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>10113223</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>10004408</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>10001043</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>10219764</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>10127368</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>10255093</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>10036227</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>10024943</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>10113223</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>10164340</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>10059024</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>10164431</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>10127368</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>10024943</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>10113223</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>10016287</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>10232805</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>10024943</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>10255093</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>10059139</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>10059024</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>10113223</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>10164340</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>10255093</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>10114434</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>10024943</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>10004408</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>10050747</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>10042805</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>10103820</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>10057657</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>10127369</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>10188319</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>10004437</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>10126309</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>10025976</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
         <v>10032499</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>10007485</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
         <v>10105349</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>10220817</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
         <v>10057381</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
         <v>10092212</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
         <v>10095739</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
         <v>10020308</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
         <v>10021623</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>10029283</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
         <v>10041989</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>10043703</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
         <v>10157874</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
         <v>10129706</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
         <v>10037843</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>10144787</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
         <v>10129706</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
         <v>10228066</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>10006046</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>10102228</v>
       </c>
     </row>
   </sheetData>

--- a/VP/VP_FILTER_SKU.xlsx
+++ b/VP/VP_FILTER_SKU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CloudKart\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madhuri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942B4A08-81DB-4024-9162-B4434D0A0E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1EB74F-86A7-4C61-B216-F539BAF6E34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -912,551 +912,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A107"/>
+  <dimension ref="A1:A103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>10022921</v>
+        <v>10022222</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>10046772</v>
-      </c>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>10177346</v>
-      </c>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>10173048</v>
-      </c>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>10022921</v>
-      </c>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>10046772</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>10030631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>10134810</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>10177346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10046772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10020378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>10020378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>10217540</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>10177346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>10127368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>10036227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>10114434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>10134810</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>10046772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>10113223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>10020378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>10022921</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>10177346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>10005480</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>10127368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>10134810</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>10187607</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>10059535</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>10134810</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>10164431</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>10114434</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>10219764</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>10134810</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>10036227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>10113223</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>10127368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>10177346</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>10187607</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>10114434</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>10113223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>10024943</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>10114434</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>10219764</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>10059024</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>10127368</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>10164340</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>10113223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>10114434</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>10004408</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>10001043</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>10219764</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>10127368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>10255093</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>10036227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>10024943</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>10114434</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>10114434</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>10113223</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>10164340</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>10059024</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>10164431</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>10127368</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>10024943</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>10114434</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>10113223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>10016287</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>10232805</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>10024943</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>10255093</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>10059139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>10059024</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>10113223</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>10164340</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>10255093</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>10114434</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>10024943</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>10004408</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>10050747</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>10042805</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>10103820</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>10057657</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>10127369</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>10188319</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>10004437</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>10126309</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>10025976</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>10032499</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>10007485</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>10105349</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>10220817</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>10057381</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>10092212</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>10095739</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>10020308</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>10021623</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>10029283</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>10041989</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
-        <v>10043703</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>10157874</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>10129706</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>10037843</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <v>10144787</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>10129706</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <v>10228066</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>10006046</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <v>10102228</v>
-      </c>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
